--- a/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0.825</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.425</v>
+        <v>0.4462809917355371</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.65</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.641025641025641</v>
+        <v>0.4206349206349207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0.4958677685950413</v>
       </c>
     </row>
   </sheetData>
